--- a/ValueSet-verfiable-credential-type.xlsx
+++ b/ValueSet-verfiable-credential-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-08T13:12:44+00:00</t>
+    <t>2022-12-08T13:18:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-verfiable-credential-type.xlsx
+++ b/ValueSet-verfiable-credential-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-08T13:18:00+00:00</t>
+    <t>2022-12-08T13:19:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-verfiable-credential-type.xlsx
+++ b/ValueSet-verfiable-credential-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-08T13:19:01+00:00</t>
+    <t>2022-12-09T07:59:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-verfiable-credential-type.xlsx
+++ b/ValueSet-verfiable-credential-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-09T07:59:59+00:00</t>
+    <t>2022-12-25T17:31:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-verfiable-credential-type.xlsx
+++ b/ValueSet-verfiable-credential-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-25T17:31:41+00:00</t>
+    <t>2023-01-10T10:46:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Global (Whole world)</t>
   </si>
   <si>
     <t>Description</t>

--- a/ValueSet-verfiable-credential-type.xlsx
+++ b/ValueSet-verfiable-credential-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-10T10:46:51+00:00</t>
+    <t>2023-01-10T13:29:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-verfiable-credential-type.xlsx
+++ b/ValueSet-verfiable-credential-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-10T13:29:07+00:00</t>
+    <t>2023-01-10T13:29:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
